--- a/doc/halley功能测试点.xlsx
+++ b/doc/halley功能测试点.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,14 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>if_recall非法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>run_num限制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>type非法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -237,14 +229,26 @@
   </si>
   <si>
     <t>如果instance!=null直接出队列，并且释放资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_recall非法,recall_limit非法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset,offsettype非法验证</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -320,6 +324,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -383,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,10 +422,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,7 +456,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,14 +631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -642,7 +647,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="25.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -674,7 +679,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="27.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -687,7 +692,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -698,7 +703,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -709,7 +714,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="54">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>24</v>
@@ -720,7 +725,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -728,10 +733,11 @@
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -739,10 +745,11 @@
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -750,65 +757,71 @@
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -819,7 +832,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="27">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -830,7 +843,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>10</v>
@@ -841,7 +854,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="27">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>10</v>
@@ -852,7 +865,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="27">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
@@ -863,7 +876,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="27">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
@@ -874,7 +887,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="27">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -885,7 +898,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="27">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -898,7 +911,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="40.5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
@@ -907,154 +920,154 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="40.5">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="27">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="27">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="27">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="27">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="27">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="40.5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="40.5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="27">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>

--- a/doc/halley功能测试点.xlsx
+++ b/doc/halley功能测试点.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,8 +247,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,9 +422,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,6 +457,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -631,14 +633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -647,7 +649,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1">
+    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -677,9 +679,11 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -690,9 +694,11 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -703,7 +709,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="40.5">
+    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -714,7 +720,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="54">
+    <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>24</v>
@@ -725,7 +731,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -737,7 +743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -749,7 +755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -761,7 +767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
@@ -773,7 +779,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -785,7 +791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -794,9 +800,11 @@
         <v>30</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
@@ -809,7 +817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>24</v>
@@ -821,7 +829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="27">
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -832,7 +840,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="27">
+    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -843,7 +851,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>10</v>
@@ -854,7 +862,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="27">
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>10</v>
@@ -865,7 +873,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="27">
+    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
@@ -876,7 +884,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="27">
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
@@ -887,7 +895,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="27">
+    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -898,7 +906,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="27">
+    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -911,7 +919,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="40.5">
+    <row r="23" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
@@ -920,7 +928,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="40.5">
+    <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -933,7 +941,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
@@ -942,7 +950,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="27">
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -955,7 +963,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -968,7 +976,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="27">
+    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -981,7 +989,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="27">
+    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>43</v>
@@ -992,7 +1000,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="27">
+    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>43</v>
@@ -1003,7 +1011,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>47</v>
@@ -1014,7 +1022,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
@@ -1023,7 +1031,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
@@ -1032,7 +1040,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="27">
+    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>48</v>
@@ -1043,7 +1051,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="40.5">
+    <row r="35" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
@@ -1052,7 +1060,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="40.5">
+    <row r="36" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
@@ -1061,7 +1069,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="27">
+    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>52</v>

--- a/doc/halley功能测试点.xlsx
+++ b/doc/halley功能测试点.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,8 +247,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,10 +422,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +456,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,14 +631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -649,7 +647,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -666,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="25.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -683,7 +681,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="27.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -698,7 +696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -709,7 +707,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -720,7 +718,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="54">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>24</v>
@@ -729,9 +727,11 @@
         <v>13</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -743,7 +743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -755,7 +755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -767,7 +767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
@@ -779,7 +779,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -791,7 +791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -804,7 +804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
@@ -817,7 +817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>24</v>
@@ -829,7 +829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="27">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -840,7 +840,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="27">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -851,7 +851,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>10</v>
@@ -862,7 +862,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="27">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>10</v>
@@ -873,7 +873,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="27">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
@@ -884,7 +884,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="27">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
@@ -895,7 +895,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="27">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -906,7 +906,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="27">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="40.5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
@@ -928,7 +928,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="40.5">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
@@ -950,7 +950,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="27">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="27">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="27">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>43</v>
@@ -1000,7 +1000,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="27">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>43</v>
@@ -1011,7 +1011,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>47</v>
@@ -1022,7 +1022,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
@@ -1031,7 +1031,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
@@ -1040,7 +1040,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="27">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>48</v>
@@ -1051,7 +1051,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="40.5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
@@ -1060,7 +1060,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="40.5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
@@ -1069,7 +1069,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="27">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>52</v>

--- a/doc/halley功能测试点.xlsx
+++ b/doc/halley功能测试点.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>确保instance和relainstance是一个事物保存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>确保instance和relainstance不是同一个实例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -241,6 +237,22 @@
   </si>
   <si>
     <t>offset,offsettype非法验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保instance和relainstance是一个transaction保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将任务状态重置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -678,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1">
@@ -693,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -705,7 +717,9 @@
         <v>11</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="3"/>
@@ -716,117 +730,119 @@
         <v>12</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="54">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27">
@@ -838,7 +854,9 @@
         <v>14</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="27">
       <c r="A16" s="3"/>
@@ -860,7 +878,9 @@
         <v>16</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="27">
       <c r="A18" s="3"/>
@@ -871,7 +891,9 @@
         <v>17</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="27">
       <c r="A19" s="3"/>
@@ -879,10 +901,12 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="27">
       <c r="A20" s="3"/>
@@ -890,10 +914,12 @@
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="27">
       <c r="A21" s="3"/>
@@ -901,123 +927,143 @@
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="27">
       <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="40.5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="40.5">
       <c r="A24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="27">
       <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="27">
       <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="27">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="27">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1026,7 +1072,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1035,7 +1081,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1043,42 +1089,63 @@
     <row r="34" spans="1:5" ht="27">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="40.5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="40.5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="27">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/doc/halley功能测试点.xlsx
+++ b/doc/halley功能测试点.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>将任务状态重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>external post</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -644,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -891,9 +895,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="27">
       <c r="A19" s="3"/>
@@ -1066,7 +1068,9 @@
         <v>43</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
@@ -1075,7 +1079,9 @@
         <v>44</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
@@ -1084,7 +1090,9 @@
         <v>45</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="27">
       <c r="A34" s="3"/>
@@ -1145,6 +1153,11 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
